--- a/PES/Rehan/New Microsoft Excel Worksheet.xlsx
+++ b/PES/Rehan/New Microsoft Excel Worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Rehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005B98FB-A717-4F19-A336-0C7F86E841DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BBDFB-3343-420D-8451-D761C20AA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zakat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="158">
   <si>
     <t>Semester No. 1</t>
   </si>
@@ -481,13 +482,35 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Parrots</t>
+  </si>
+  <si>
+    <t>Add Loan To Fahad</t>
+  </si>
+  <si>
+    <t>Add Loan To hameed</t>
+  </si>
+  <si>
+    <t>Less Loan from outsiders</t>
+  </si>
+  <si>
+    <t>ZAKAT 2.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +541,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -757,10 +787,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,6 +830,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -807,6 +862,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -817,24 +881,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -844,23 +890,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1234,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,16 +1282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1292,7 +1325,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1312,7 +1345,7 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1332,7 +1365,7 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1352,7 +1385,7 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1372,7 +1405,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1392,7 +1425,7 @@
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1412,7 +1445,7 @@
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1432,7 +1465,7 @@
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1443,26 +1476,26 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1496,7 +1529,7 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1516,7 +1549,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1536,7 +1569,7 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1556,7 +1589,7 @@
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1576,7 +1609,7 @@
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1596,7 +1629,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1607,26 +1640,26 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1660,7 +1693,7 @@
       <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1680,7 +1713,7 @@
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1700,7 +1733,7 @@
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1720,7 +1753,7 @@
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +1771,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1749,26 +1782,26 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1802,7 +1835,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -1822,7 +1855,7 @@
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -1842,7 +1875,7 @@
       <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -1862,7 +1895,7 @@
       <c r="C34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -1882,7 +1915,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -1893,26 +1926,26 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -1946,7 +1979,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -1966,7 +1999,7 @@
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E40" s="4" t="s">
@@ -1986,7 +2019,7 @@
       <c r="C41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="7" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2037,7 @@
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="16" t="s">
         <v>151</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -2024,7 +2057,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="35"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2075,7 @@
       <c r="C44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="7" t="s">
         <v>10</v>
       </c>
@@ -2051,26 +2084,26 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
@@ -2104,7 +2137,7 @@
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="35"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="4" t="s">
         <v>10</v>
       </c>
@@ -2122,7 +2155,7 @@
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="35"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="4" t="s">
         <v>10</v>
       </c>
@@ -2171,58 +2204,58 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="24"/>
+      <c r="E52" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="20"/>
       <c r="G52" s="1"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="25"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="1"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
@@ -2287,34 +2320,34 @@
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="24"/>
+      <c r="E59" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="20"/>
       <c r="G59" s="1"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="25"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="1"/>
       <c r="H60" s="10"/>
     </row>
@@ -2341,36 +2374,36 @@
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="24" t="s">
+      <c r="E62" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="20" t="s">
         <v>99</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="25"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="1"/>
       <c r="H63" s="10"/>
     </row>
@@ -2419,36 +2452,36 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="24" t="s">
+      <c r="E66" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="25"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="28"/>
       <c r="G67" s="1"/>
       <c r="H67" s="10"/>
     </row>
@@ -2475,56 +2508,56 @@
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="24" t="s">
+      <c r="E69" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="28"/>
       <c r="G70" s="1"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="24" t="s">
+      <c r="E71" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="20" t="s">
         <v>62</v>
       </c>
       <c r="G71" s="1"/>
@@ -2534,26 +2567,26 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="29"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="34"/>
       <c r="G72" s="1"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="25"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="28"/>
       <c r="G73" s="1"/>
       <c r="H73" s="10"/>
       <c r="J73">
@@ -2571,162 +2604,162 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="24" t="s">
+      <c r="E74" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="29"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="34"/>
       <c r="G75" s="1"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="25"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="28"/>
       <c r="G76" s="1"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="24" t="s">
+      <c r="E77" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="25"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="28"/>
       <c r="G78" s="1"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="24" t="s">
+      <c r="E79" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="20" t="s">
         <v>112</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="29"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="34"/>
       <c r="G80" s="1"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="25"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="28"/>
       <c r="G81" s="1"/>
       <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="24" t="s">
+      <c r="E82" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="25"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="28"/>
       <c r="G83" s="1"/>
       <c r="H83" s="10"/>
     </row>
@@ -2769,128 +2802,128 @@
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="B86" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="24" t="s">
+      <c r="E86" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="25"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="28"/>
       <c r="G87" s="1"/>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="24" t="s">
+      <c r="E88" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="25"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="28"/>
       <c r="G89" s="1"/>
       <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="24" t="s">
+      <c r="E90" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="10"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="25"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="28"/>
       <c r="G91" s="1"/>
       <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="21"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
@@ -2935,34 +2968,34 @@
       <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="24"/>
+      <c r="E96" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="20"/>
       <c r="G96" s="1"/>
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="25"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="1"/>
       <c r="H97" s="10"/>
     </row>
@@ -3115,57 +3148,104 @@
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="C105" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E105" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="24" t="s">
+      <c r="E105" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="32"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="21"/>
       <c r="G106" s="14"/>
       <c r="H106" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
     <mergeCell ref="A92:H92"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="B86:B87"/>
@@ -3177,71 +3257,127 @@
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="E88:E89"/>
     <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6DC941-1906-477E-A948-2E84CB2D88CA}">
+  <dimension ref="D4:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="36">
+        <f>21000+10000</f>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="36">
+        <f>3500+3500+7000+5000</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="36">
+        <f>SUM(E5:E6)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="36">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="36">
+        <f>E7+E9+E10-E12</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="36">
+        <f>E14*2.5%</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>